--- a/Resource/excel/R-任务-条件配置-(框架定义,策划填写).xlsx
+++ b/Resource/excel/R-任务-条件配置-(框架定义,策划填写).xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KFrame\Frame\trunk\_resource\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\FighterServer\Resource\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -355,7 +355,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
   <si>
     <t>*dark_config</t>
   </si>
@@ -436,14 +436,41 @@
   </si>
   <si>
     <t>#taskcondition</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成关卡5次</t>
+  </si>
+  <si>
+    <t>==</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>==</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>fight</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>fight</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成关卡1次</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成关卡10次</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -484,6 +511,13 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -510,7 +544,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -546,32 +580,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="8">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -685,8 +705,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2">
     <tableStyle name="MySqlDefault" count="2">
-      <tableStyleElement type="wholeTable" dxfId="9"/>
-      <tableStyleElement type="headerRow" dxfId="8"/>
+      <tableStyleElement type="wholeTable" dxfId="7"/>
+      <tableStyleElement type="headerRow" dxfId="6"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1037,13 +1057,13 @@
   <dimension ref="A1:M44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.625" style="4"/>
-    <col min="2" max="2" width="13.875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="22.25" style="4" customWidth="1"/>
     <col min="3" max="3" width="14.375" style="4" customWidth="1"/>
     <col min="4" max="4" width="12.375" style="4"/>
     <col min="5" max="5" width="10.625" style="4" customWidth="1"/>
@@ -1191,19 +1211,76 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
+      <c r="A5" s="4">
+        <v>10101</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1</v>
+      </c>
       <c r="E5" s="7"/>
+      <c r="F5" s="4">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
+      <c r="L5" s="13" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
+      <c r="A6" s="4">
+        <v>10102</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="4">
+        <v>5</v>
+      </c>
       <c r="E6" s="7"/>
+      <c r="F6" s="4">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
+      <c r="A7" s="4">
+        <v>10103</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="4">
+        <v>10</v>
+      </c>
       <c r="E7" s="7"/>
+      <c r="F7" s="4">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0</v>
+      </c>
+      <c r="L7" s="13" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B8" s="8"/>
@@ -1378,14 +1455,14 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="A1:A4">
-    <cfRule type="duplicateValues" dxfId="7" priority="13" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="6" priority="14" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="5" priority="15" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="16" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="3" priority="17" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="13" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="14" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="15" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="16" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="17" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:A65529">
-    <cfRule type="duplicateValues" dxfId="2" priority="18" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="18" stopIfTrue="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Resource/excel/R-任务-条件配置-(框架定义,策划填写).xlsx
+++ b/Resource/excel/R-任务-条件配置-(框架定义,策划填写).xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\FighterServer\Resource\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KFrame\Project\Fighter\trunk\Resource\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -355,7 +355,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
   <si>
     <t>*dark_config</t>
   </si>
@@ -442,14 +442,6 @@
     <t>完成关卡5次</t>
   </si>
   <si>
-    <t>==</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>==</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>fight</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -463,6 +455,18 @@
   </si>
   <si>
     <t>完成关卡10次</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;=</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;=</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;=</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1057,7 +1061,7 @@
   <dimension ref="A1:M44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -1215,10 +1219,10 @@
         <v>10101</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D5" s="4">
         <v>1</v>
@@ -1231,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
@@ -1239,10 +1243,10 @@
         <v>10102</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D6" s="4">
         <v>5</v>
@@ -1263,10 +1267,10 @@
         <v>10103</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D7" s="4">
         <v>10</v>
@@ -1279,7 +1283,7 @@
         <v>0</v>
       </c>
       <c r="L7" s="13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">

--- a/Resource/excel/R-任务-条件配置-(框架定义,策划填写).xlsx
+++ b/Resource/excel/R-任务-条件配置-(框架定义,策划填写).xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KFrame\Project\Fighter\trunk\Resource\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\FighterServer\Resource\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -36,6 +36,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -44,6 +45,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -61,6 +63,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>PCC:</t>
@@ -69,6 +72,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -84,6 +88,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>PCC:</t>
@@ -92,6 +97,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -107,6 +113,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>PCC:</t>
@@ -115,6 +122,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -130,6 +138,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">ID段:
@@ -148,6 +157,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>PCC:</t>
@@ -156,6 +166,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -172,6 +183,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>计数限制条件:</t>
@@ -180,6 +192,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -197,6 +210,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>PCC:</t>
@@ -205,6 +219,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -220,6 +235,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>PCC:</t>
@@ -228,6 +244,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -244,6 +261,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>PCC:</t>
@@ -252,6 +270,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -267,6 +286,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>PCC:</t>
@@ -275,6 +295,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -297,6 +318,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>PCC:</t>
@@ -305,6 +327,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -327,6 +350,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>PCC:</t>
@@ -335,6 +359,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -485,34 +510,40 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1061,7 +1092,7 @@
   <dimension ref="A1:M44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
